--- a/va_facility_data_2025-02-20/Forty-Sixth Street North VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Forty-Sixth%20Street%20North%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Forty-Sixth Street North VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Forty-Sixth%20Street%20North%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R4ba48dcb804643a4a96a3798b2cf9e4f"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="R00bdad6a76564591a6befc5af8ef3296"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R1ed9432d0ff14221b7504062565728fc"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="Rc74491069d7442c1b8a963f2b29245ef"/>
   </x:sheets>
 </x:workbook>
 </file>
